--- a/Modelos_de_Bases_de_Datos/Modelo_Relacional.xlsx
+++ b/Modelos_de_Bases_de_Datos/Modelo_Relacional.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="943" firstSheet="4" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="943" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="REGIONAL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="177">
   <si>
     <t>Relación REGIONAL</t>
   </si>
@@ -1578,6 +1578,12 @@
   </si>
   <si>
     <t>nombres_usuario</t>
+  </si>
+  <si>
+    <t>Hector Alonso</t>
+  </si>
+  <si>
+    <t>Lopez Valencia</t>
   </si>
 </sst>
 </file>
@@ -1865,6 +1871,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1874,17 +1883,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2274,11 +2280,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
@@ -2317,7 +2323,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
@@ -2328,7 +2334,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8">
         <v>17</v>
       </c>
@@ -2337,7 +2343,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8">
         <v>68</v>
       </c>
@@ -2346,7 +2352,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
     </row>
@@ -2376,10 +2382,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="51.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -2409,7 +2415,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2417,85 +2423,85 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="15"/>
     </row>
     <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="15"/>
     </row>
     <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="15"/>
     </row>
     <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="25"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="15"/>
     </row>
     <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="25"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="15"/>
     </row>
   </sheetData>
@@ -2513,7 +2519,7 @@
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2527,13 +2533,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="51.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -2587,7 +2593,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="15">
@@ -2604,7 +2610,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15">
         <v>10</v>
       </c>
@@ -2619,7 +2625,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8">
         <v>25</v>
       </c>
@@ -2634,7 +2640,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8">
         <v>25</v>
       </c>
@@ -2649,7 +2655,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8">
         <v>21</v>
       </c>
@@ -2664,7 +2670,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8">
         <v>21</v>
       </c>
@@ -2679,91 +2685,91 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="8"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="25"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="25"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -2784,7 +2790,7 @@
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2800,16 +2806,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="42.75">
       <c r="A4" s="2" t="s">
@@ -2885,7 +2891,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
@@ -2911,7 +2917,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8">
         <v>25</v>
       </c>
@@ -2935,7 +2941,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8">
         <v>10</v>
       </c>
@@ -2959,7 +2965,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8">
         <v>21</v>
       </c>
@@ -2983,7 +2989,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8">
         <v>87</v>
       </c>
@@ -3007,7 +3013,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8">
         <v>21</v>
       </c>
@@ -3045,7 +3051,7 @@
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3059,13 +3065,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="42.75">
       <c r="A4" s="2" t="s">
@@ -3114,7 +3120,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -3131,7 +3137,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8" t="s">
         <v>142</v>
       </c>
@@ -3146,7 +3152,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>142</v>
       </c>
@@ -3161,21 +3167,21 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -3196,7 +3202,7 @@
   <dimension ref="A2:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3212,15 +3218,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="42.75">
       <c r="A4" s="2" t="s">
@@ -3289,17 +3295,17 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
         <v>300</v>
       </c>
       <c r="C7" s="8">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" s="8">
         <v>21</v>
@@ -3312,7 +3318,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8">
         <v>150</v>
       </c>
@@ -3333,7 +3339,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8">
         <v>500</v>
       </c>
@@ -3354,7 +3360,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -3363,7 +3369,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -3372,7 +3378,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -3410,14 +3416,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="51.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -3483,7 +3489,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
@@ -3503,7 +3509,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8">
         <v>1135341</v>
       </c>
@@ -3521,7 +3527,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8">
         <v>1320112</v>
       </c>
@@ -3539,7 +3545,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8">
         <v>1135331</v>
       </c>
@@ -3557,7 +3563,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8">
         <v>1124041</v>
       </c>
@@ -3575,7 +3581,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -3583,7 +3589,7 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3591,7 +3597,7 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -3622,12 +3628,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="51.75" customHeight="1">
@@ -3674,7 +3680,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
@@ -3688,7 +3694,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8">
         <v>223217</v>
       </c>
@@ -3700,7 +3706,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8">
         <v>922717</v>
       </c>
@@ -3712,7 +3718,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8">
         <v>225117</v>
       </c>
@@ -3724,13 +3730,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -3749,8 +3755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3768,18 +3774,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:10" ht="51.75" customHeight="1" thickBot="1">
@@ -3869,7 +3875,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
@@ -3893,7 +3899,7 @@
       <c r="H7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="24">
         <v>42846</v>
       </c>
       <c r="J7" s="8">
@@ -3901,7 +3907,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8">
         <v>21</v>
       </c>
@@ -3923,7 +3929,7 @@
       <c r="H8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="24">
         <v>42847</v>
       </c>
       <c r="J8" s="8">
@@ -3931,9 +3937,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>29</v>
@@ -3945,15 +3951,23 @@
         <v>98553377</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="24">
+        <v>42847</v>
+      </c>
+      <c r="J9" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -3965,7 +3979,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -3977,7 +3991,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4021,18 +4035,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:10" ht="51.75" customHeight="1" thickBot="1">
@@ -4122,7 +4136,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8"/>
@@ -4136,7 +4150,7 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4148,7 +4162,7 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4160,7 +4174,7 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -4172,7 +4186,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -4184,7 +4198,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4227,18 +4241,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:10" ht="51.75" customHeight="1" thickBot="1">
@@ -4328,7 +4342,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8"/>
@@ -4342,7 +4356,7 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4354,7 +4368,7 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4366,7 +4380,7 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -4378,7 +4392,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -4390,7 +4404,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4428,12 +4442,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="51.75" customHeight="1">
@@ -4480,7 +4494,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
@@ -4494,7 +4508,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8">
         <v>9204</v>
       </c>
@@ -4506,7 +4520,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8">
         <v>9206</v>
       </c>
@@ -4518,7 +4532,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8">
         <v>9112</v>
       </c>
@@ -4530,7 +4544,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8">
         <v>9219</v>
       </c>
@@ -4542,7 +4556,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8">
         <v>9220</v>
       </c>
@@ -4554,7 +4568,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8">
         <v>9309</v>
       </c>
@@ -4566,7 +4580,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="8">
         <v>9224</v>
       </c>
@@ -4578,7 +4592,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8">
         <v>9225</v>
       </c>
@@ -4615,12 +4629,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1"/>
@@ -4649,7 +4663,7 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8"/>
@@ -4657,31 +4671,31 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4711,10 +4725,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1"/>
@@ -4743,7 +4757,7 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8"/>
@@ -4751,31 +4765,31 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4814,18 +4828,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="51.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -4916,7 +4930,7 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
@@ -4954,7 +4968,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8">
         <v>25</v>
       </c>
@@ -4990,7 +5004,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8">
         <v>10</v>
       </c>
@@ -5026,7 +5040,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8">
         <v>21</v>
       </c>
@@ -5062,7 +5076,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8">
         <v>87</v>
       </c>
@@ -5098,7 +5112,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8">
         <v>21</v>
       </c>
@@ -5173,11 +5187,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
@@ -5218,7 +5232,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -5229,7 +5243,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
@@ -5238,7 +5252,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
@@ -5247,7 +5261,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
@@ -5256,7 +5270,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
@@ -5265,7 +5279,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
@@ -5274,7 +5288,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
@@ -5296,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5313,19 +5327,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="51.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -5420,7 +5434,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="15">
@@ -5455,7 +5469,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15">
         <v>1128387562</v>
       </c>
@@ -5488,7 +5502,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="15">
         <v>70550772</v>
       </c>
@@ -5521,7 +5535,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="15">
         <v>99010212959</v>
       </c>
@@ -5554,7 +5568,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="15">
         <v>70764532</v>
       </c>
@@ -5587,7 +5601,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="15">
         <v>71776164</v>
       </c>
@@ -5620,7 +5634,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="15">
         <v>1017146760</v>
       </c>
@@ -5653,7 +5667,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="15">
         <v>71578068</v>
       </c>
@@ -5686,7 +5700,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="15">
         <v>99103102304</v>
       </c>
@@ -5719,7 +5733,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="15">
         <v>1020462859</v>
       </c>
@@ -5752,7 +5766,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="15">
         <v>99070611089</v>
       </c>
@@ -5785,7 +5799,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="15">
         <v>1066718643</v>
       </c>
@@ -5818,7 +5832,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="15">
         <v>1214738471</v>
       </c>
@@ -5851,7 +5865,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -5864,7 +5878,7 @@
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -5877,7 +5891,7 @@
       <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -5890,7 +5904,7 @@
       <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -5903,7 +5917,7 @@
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="25"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -5945,7 +5959,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5956,12 +5970,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
@@ -6009,7 +6023,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -6023,7 +6037,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
         <v>93</v>
       </c>
@@ -6035,7 +6049,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="15" t="s">
         <v>93</v>
       </c>
@@ -6047,7 +6061,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="15" t="s">
         <v>93</v>
       </c>
@@ -6059,7 +6073,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="15" t="s">
         <v>93</v>
       </c>
@@ -6071,7 +6085,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="15" t="s">
         <v>93</v>
       </c>
@@ -6083,7 +6097,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -6102,8 +6116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6116,13 +6130,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
@@ -6175,7 +6189,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -6192,7 +6206,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
         <v>98</v>
       </c>
@@ -6207,7 +6221,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="15" t="s">
         <v>98</v>
       </c>
@@ -6222,7 +6236,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="15" t="s">
         <v>98</v>
       </c>
@@ -6237,7 +6251,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="15" t="s">
         <v>98</v>
       </c>
@@ -6252,7 +6266,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="15" t="s">
         <v>101</v>
       </c>
@@ -6267,7 +6281,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="15" t="s">
         <v>101</v>
       </c>
@@ -6282,21 +6296,21 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -6317,7 +6331,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6330,12 +6344,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
@@ -6377,7 +6391,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="15">
@@ -6391,7 +6405,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15">
         <v>20</v>
       </c>
@@ -6403,7 +6417,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="15">
         <v>20</v>
       </c>
@@ -6415,7 +6429,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -6447,13 +6461,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
@@ -6497,7 +6511,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="15">
@@ -6514,7 +6528,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15">
         <v>675</v>
       </c>
@@ -6529,7 +6543,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="15">
         <v>612</v>
       </c>
@@ -6544,7 +6558,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="15">
         <v>611</v>
       </c>
@@ -6559,28 +6573,28 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="15"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="15"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="15"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -6613,11 +6627,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="51.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -6656,7 +6670,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
@@ -6667,7 +6681,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8">
         <v>98553377</v>
       </c>
@@ -6676,7 +6690,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8">
         <v>98553377</v>
       </c>
@@ -6685,7 +6699,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8">
         <v>1128387562</v>
       </c>
@@ -6694,7 +6708,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8">
         <v>70550772</v>
       </c>
@@ -6703,7 +6717,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8">
         <v>70764532</v>
       </c>
@@ -6712,7 +6726,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8">
         <v>70764532</v>
       </c>
@@ -6721,7 +6735,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="8">
         <v>71776164</v>
       </c>
@@ -6730,7 +6744,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8">
         <v>1017146760</v>
       </c>
@@ -6739,7 +6753,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="8">
         <v>1017146760</v>
       </c>
@@ -6748,7 +6762,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8">
         <v>71578068</v>
       </c>
@@ -6757,7 +6771,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="8">
         <v>71578068</v>
       </c>
@@ -6766,37 +6780,37 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8"/>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="8"/>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="25"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="25"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
     </row>

--- a/Modelos_de_Bases_de_Datos/Modelo_Relacional.xlsx
+++ b/Modelos_de_Bases_de_Datos/Modelo_Relacional.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="943" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="943" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REGIONAL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="176">
   <si>
     <t>Relación REGIONAL</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>código</t>
-  </si>
-  <si>
-    <t>nombre_departamento</t>
   </si>
   <si>
     <t>Ok.</t>
@@ -2265,7 +2262,7 @@
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2296,41 +2293,41 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -2339,7 +2336,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -2348,7 +2345,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -2383,7 +2380,7 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18">
       <c r="A2" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="25"/>
     </row>
@@ -2392,64 +2389,64 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="26"/>
       <c r="B8" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -2534,7 +2531,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -2546,55 +2543,55 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>124</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="15">
         <v>10</v>
@@ -2603,7 +2600,7 @@
         <v>1017146760</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="15">
         <v>9204</v>
@@ -2618,7 +2615,7 @@
         <v>71578068</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="15">
         <v>9204</v>
@@ -2633,7 +2630,7 @@
         <v>1017146760</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="15">
         <v>9204</v>
@@ -2648,7 +2645,7 @@
         <v>71578068</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="15">
         <v>9204</v>
@@ -2663,7 +2660,7 @@
         <v>1017146760</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="15">
         <v>9204</v>
@@ -2678,7 +2675,7 @@
         <v>71578068</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="15">
         <v>9204</v>
@@ -2807,7 +2804,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="18">
       <c r="A2" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -2825,95 +2822,95 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.5">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="8"/>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="E7" s="8">
         <v>900000</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="8">
         <v>9204</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2922,22 +2919,22 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="8">
         <v>900000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="8">
         <v>9219</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2946,22 +2943,22 @@
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="8">
         <v>900000</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="8">
         <v>9204</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2970,22 +2967,22 @@
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="E10" s="8">
         <v>5</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="8">
         <v>9204</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2994,22 +2991,22 @@
         <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="8">
         <v>5</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="8">
         <v>9204</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3018,22 +3015,22 @@
         <v>21</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="8">
         <v>5</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="8">
         <v>9224</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +3063,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18">
       <c r="A2" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -3078,42 +3075,42 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3121,16 +3118,16 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="8">
         <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="8">
         <v>9204</v>
@@ -3139,13 +3136,13 @@
     <row r="8" spans="1:7">
       <c r="A8" s="26"/>
       <c r="B8" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="8">
         <v>25</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="8">
         <v>9219</v>
@@ -3154,13 +3151,13 @@
     <row r="9" spans="1:7">
       <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="8">
         <v>10</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="8">
         <v>9204</v>
@@ -3219,7 +3216,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -3233,70 +3230,70 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.5">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>300</v>
@@ -3311,7 +3308,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="8">
         <v>9204</v>
@@ -3332,7 +3329,7 @@
         <v>87</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="8">
         <v>9204</v>
@@ -3353,7 +3350,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="8">
         <v>9224</v>
@@ -3417,7 +3414,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -3430,73 +3427,73 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="F5" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>1124040</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="8">
         <v>9204</v>
@@ -3514,7 +3511,7 @@
         <v>1135341</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="8">
         <v>9204</v>
@@ -3532,7 +3529,7 @@
         <v>1320112</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8">
         <v>9204</v>
@@ -3550,7 +3547,7 @@
         <v>1135331</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8">
         <v>9204</v>
@@ -3568,7 +3565,7 @@
         <v>1124041</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8">
         <v>9204</v>
@@ -3629,7 +3626,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="18">
       <c r="A2" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -3644,44 +3641,44 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>223309</v>
@@ -3690,7 +3687,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -3702,7 +3699,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -3714,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -3726,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -3755,7 +3752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -3775,7 +3772,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="18">
       <c r="A2" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -3793,48 +3790,48 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="35.25" customHeight="1" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3844,45 +3841,45 @@
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="8">
         <v>9204</v>
@@ -3891,13 +3888,13 @@
         <v>1128387562</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="I7" s="24">
         <v>42846</v>
@@ -3912,7 +3909,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="8">
         <v>9204</v>
@@ -3921,13 +3918,13 @@
         <v>1128387562</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="I8" s="24">
         <v>42847</v>
@@ -3942,7 +3939,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8">
         <v>9204</v>
@@ -3951,13 +3948,13 @@
         <v>98553377</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="I9" s="24">
         <v>42847</v>
@@ -4036,7 +4033,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="18">
       <c r="A2" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -4054,48 +4051,48 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="35.25" customHeight="1" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4105,39 +4102,39 @@
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4242,7 +4239,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="18">
       <c r="A2" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -4260,48 +4257,48 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="35.25" customHeight="1" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4311,39 +4308,39 @@
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4428,7 +4425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -4443,7 +4440,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="18">
       <c r="A2" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -4458,50 +4455,50 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>9203</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8">
         <v>5</v>
@@ -4513,7 +4510,7 @@
         <v>9204</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8">
         <v>5</v>
@@ -4525,7 +4522,7 @@
         <v>9206</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8">
         <v>5</v>
@@ -4537,7 +4534,7 @@
         <v>9112</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="8">
         <v>17</v>
@@ -4549,7 +4546,7 @@
         <v>9219</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8">
         <v>17</v>
@@ -4561,7 +4558,7 @@
         <v>9220</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="8">
         <v>17</v>
@@ -4573,7 +4570,7 @@
         <v>9309</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="8">
         <v>68</v>
@@ -4585,7 +4582,7 @@
         <v>9224</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="8">
         <v>68</v>
@@ -4597,7 +4594,7 @@
         <v>9225</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="8">
         <v>68</v>
@@ -4630,7 +4627,7 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5" ht="19.5" thickTop="1" thickBot="1">
       <c r="A2" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -4648,7 +4645,7 @@
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4656,7 +4653,7 @@
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -4664,7 +4661,7 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4742,7 +4739,7 @@
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4750,7 +4747,7 @@
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -4758,7 +4755,7 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4849,51 +4846,51 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -4903,25 +4900,25 @@
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -4931,40 +4928,40 @@
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="E7" s="8">
         <v>900000</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="8">
         <v>9204</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -4973,34 +4970,34 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="8">
         <v>900000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="8">
         <v>9219</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -5009,34 +5006,34 @@
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="8">
         <v>900000</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="8">
         <v>9204</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -5045,22 +5042,22 @@
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="E10" s="8">
         <v>5</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="8">
         <v>9204</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="8">
         <v>300</v>
@@ -5072,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -5081,22 +5078,22 @@
         <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="8">
         <v>5</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="8">
         <v>9204</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="8">
         <v>150</v>
@@ -5108,7 +5105,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -5117,22 +5114,22 @@
         <v>21</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="8">
         <v>5</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="8">
         <v>9224</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="8">
         <v>500</v>
@@ -5144,7 +5141,7 @@
         <v>265</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5188,7 +5185,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -5200,43 +5197,43 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8">
         <v>9204</v>
@@ -5245,7 +5242,7 @@
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="26"/>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="8">
         <v>9219</v>
@@ -5254,7 +5251,7 @@
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8">
         <v>9224</v>
@@ -5263,7 +5260,7 @@
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8">
         <v>9204</v>
@@ -5272,7 +5269,7 @@
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="8">
         <v>9219</v>
@@ -5281,7 +5278,7 @@
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8">
         <v>9224</v>
@@ -5290,7 +5287,7 @@
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8">
         <v>9204</v>
@@ -5328,7 +5325,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="18">
       <c r="A2" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -5346,42 +5343,42 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -5390,61 +5387,61 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="K5" s="12"/>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="21.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="15">
         <v>98553377</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="E7" s="15">
         <v>3146416371</v>
@@ -5453,19 +5450,19 @@
         <v>3136158545</v>
       </c>
       <c r="G7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="I7" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="15">
         <v>9204</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -5474,10 +5471,10 @@
         <v>1128387562</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="E8" s="15">
         <v>3017339021</v>
@@ -5486,19 +5483,19 @@
         <v>5824247</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="15">
         <v>12345</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="15">
         <v>9204</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -5507,31 +5504,31 @@
         <v>70550772</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="E9" s="15">
         <v>3004164637</v>
       </c>
       <c r="F9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="15">
         <v>54321</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="15">
         <v>9204</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -5540,31 +5537,31 @@
         <v>99010212959</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="15">
         <v>3117958321</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="15">
         <v>99010212959</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="15">
         <v>9204</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -5573,31 +5570,31 @@
         <v>70764532</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="E11" s="15">
         <v>3156737465</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="15">
         <v>67898</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="15">
         <v>9204</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -5606,10 +5603,10 @@
         <v>71776164</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="E12" s="15">
         <v>3113746253</v>
@@ -5618,19 +5615,19 @@
         <v>3411483</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="15">
         <v>9204</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -5639,31 +5636,31 @@
         <v>1017146760</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="E13" s="15">
         <v>3108979552</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="I13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="15">
         <v>9204</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -5672,31 +5669,31 @@
         <v>71578068</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="E14" s="15">
         <v>3127069044</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="I14" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="15">
         <v>9204</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -5705,31 +5702,31 @@
         <v>99103102304</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="E15" s="15">
         <v>3052945422</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="17">
         <v>40320130199</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="15">
         <v>9204</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -5738,31 +5735,31 @@
         <v>1020462859</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="E16" s="15">
         <v>3106543242</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="17">
         <v>9582640201</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="15">
         <v>9204</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -5771,31 +5768,31 @@
         <v>99070611089</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="E17" s="15">
         <v>3023626592</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="17">
         <v>98011607099</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="15">
         <v>9204</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -5804,31 +5801,31 @@
         <v>1066718643</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="E18" s="15">
         <v>3106543243</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="17">
         <v>3468176601</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="15">
         <v>9204</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -5837,31 +5834,31 @@
         <v>1214738471</v>
       </c>
       <c r="C19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="E19" s="15">
         <v>3196543244</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="17">
         <v>1748374121</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="15">
         <v>9204</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -5971,7 +5968,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="18">
       <c r="A2" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -5984,50 +5981,50 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="15">
         <v>99010212959</v>
@@ -6039,7 +6036,7 @@
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="15">
         <v>1152711299</v>
@@ -6051,7 +6048,7 @@
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="15">
         <v>1020462859</v>
@@ -6063,7 +6060,7 @@
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="15">
         <v>99070611089</v>
@@ -6075,7 +6072,7 @@
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="15">
         <v>1066718643</v>
@@ -6087,7 +6084,7 @@
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15">
         <v>1214738471</v>
@@ -6131,7 +6128,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18">
       <c r="A2" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -6145,70 +6142,70 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="15"/>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="15">
         <v>98553377</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="15">
         <v>98553377</v>
@@ -6217,13 +6214,13 @@
         <v>1128387562</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="15">
         <v>98553377</v>
@@ -6232,28 +6229,28 @@
         <v>70550772</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="15">
         <v>70764532</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="15">
         <v>70764532</v>
@@ -6262,13 +6259,13 @@
         <v>71776164</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="15">
         <v>98553377</v>
@@ -6277,13 +6274,13 @@
         <v>1017146760</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="15">
         <v>98553377</v>
@@ -6292,7 +6289,7 @@
         <v>71578068</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -6345,7 +6342,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="18">
       <c r="A2" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -6358,41 +6355,41 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="15">
         <v>20</v>
@@ -6462,7 +6459,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18">
       <c r="A2" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -6476,43 +6473,43 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>108</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="15">
         <v>703</v>
@@ -6628,7 +6625,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -6638,46 +6635,46 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>98553377</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -6686,7 +6683,7 @@
         <v>98553377</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -6695,7 +6692,7 @@
         <v>98553377</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -6704,7 +6701,7 @@
         <v>1128387562</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -6713,7 +6710,7 @@
         <v>70550772</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -6722,7 +6719,7 @@
         <v>70764532</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -6731,7 +6728,7 @@
         <v>70764532</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -6740,7 +6737,7 @@
         <v>71776164</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -6749,7 +6746,7 @@
         <v>1017146760</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -6758,7 +6755,7 @@
         <v>1017146760</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -6767,7 +6764,7 @@
         <v>71578068</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -6776,7 +6773,7 @@
         <v>71578068</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
